--- a/JB,DRW-02446-01,RAB.xlsx
+++ b/JB,DRW-02446-01,RAB.xlsx
@@ -479,27 +479,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1020</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>976-000-310</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -523,27 +531,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1030</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>976-000-139</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -567,27 +583,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1040</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>13037</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -611,27 +635,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1050</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>976-000-139</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -655,27 +687,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1060</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Garr 04047</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -699,27 +739,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1070</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>4120000813</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -743,27 +791,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1080</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Garr 04057</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -787,27 +843,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1090</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>27450</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.01</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -831,27 +895,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1100</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>13037</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.01</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -875,27 +947,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1110</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>13057</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0.01</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -919,27 +999,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1120</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>13037</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0.01</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -963,27 +1051,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1130</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>970547-C6</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0.01</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1007,27 +1103,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1140</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>18034</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0.01</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1051,27 +1155,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1150</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>01110</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0.01</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1095,27 +1207,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1160</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>36359</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0.01</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1139,27 +1259,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1170</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>18034</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.01</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1183,27 +1311,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1180</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Garr 04047</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0.01</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1227,27 +1363,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1190</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>28145-C3</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0.01</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1271,27 +1415,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1190</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>04047</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0.01</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1315,27 +1467,35 @@
           <t>SD1776</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1200</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>VG436-1250</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.01</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
